--- a/OPM数据分析/开服情况统计表.xlsx
+++ b/OPM数据分析/开服情况统计表.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="服务器情况统计" sheetId="1" r:id="rId1"/>
+    <sheet name="102服" sheetId="2" r:id="rId2"/>
+    <sheet name="120服" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,46 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>启始服</t>
-    <rPh sb="0" eb="1">
-      <t>qi'fa</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束服</t>
-    <rPh sb="0" eb="1">
-      <t>jie'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡3星奖励测试服</t>
-    <rPh sb="0" eb="1">
-      <t>guan'ka</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiang'li</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>人数</t>
     <rPh sb="0" eb="1">
@@ -493,12 +455,664 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>120服</t>
+    <rPh sb="3" eb="4">
+      <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过修改"玩家新手阶段关卡的小怪掉落的饰品类型"并跟其它服务器对比，确定留存、玩家通关等情况与新手关卡饰品掉落类型的相关性。</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin'shou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'duan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan'ka</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>d</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fu'wu'qi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dui'bi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>liu'cun</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>tong'guan</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xin'shou</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>guan'ka</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>d</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>xiang'guan'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>1日后</t>
+  </si>
+  <si>
+    <t>2日后</t>
+  </si>
+  <si>
+    <t>3日后</t>
+  </si>
+  <si>
+    <t>4日后</t>
+  </si>
+  <si>
+    <t>5日后</t>
+  </si>
+  <si>
+    <t>6日后</t>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+  </si>
+  <si>
+    <t>通关1-2(基数)</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体</t>
+  </si>
+  <si>
+    <t>留存情况</t>
+    <rPh sb="0" eb="1">
+      <t>liu'cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing'kuagn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关情况</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing'kuang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论：通过对比102服与相邻各服的情况，没有较高的留存表现或较高的通关水平。因此，不认为留存情况跟关卡三星奖励有较高的相关性。</t>
+    <rPh sb="0" eb="1">
+      <t>jie'lun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'bi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiang'lin</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>d</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jiao'gao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>d</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>liu'cun</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>biao'xian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jiao'gao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>d</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>tong'guan</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shui'ping</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yin'ci</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>bu'ren'wei</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>you</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jiao'gao</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>d</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整章节</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3章</t>
+    <rPh sb="1" eb="2">
+      <t>zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4章</t>
+    <rPh sb="1" eb="2">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试服</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器水平</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui'ping</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊测试</t>
+    <rPh sb="0" eb="1">
+      <t>te'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试状态</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星奖励</t>
+    <rPh sb="0" eb="1">
+      <t>san'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiang'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改测试服3-4章主线、随机副本中，小怪掉落的饰品种类，由现在的（每章4种随机）修改为（这两章共3种随机）。</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi'fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhu'xian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>suii</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fu'ben</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhogn</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>d</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>you</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xian'z</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>z</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>d</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>mei'zhang</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>gong</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhe'liang'zhang</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>sui'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心、旋风、蓝焰</t>
+    <rPh sb="0" eb="1">
+      <t>ai'xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xuan'feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lan'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心、利刃、药剂、蓝焰</t>
+    <rPh sb="0" eb="1">
+      <t>ai'xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li'ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yao'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lan'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <rPh sb="0" eb="1">
+      <t>fan'she</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射、剑玉、利爪</t>
+    <rPh sb="0" eb="1">
+      <t>fan'she</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li'zhua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蛇</t>
+    <rPh sb="0" eb="1">
+      <t>du'she</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
+    <rPh sb="0" eb="1">
+      <t>ji'su</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <rPh sb="0" eb="1">
+      <t>neng'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护罩</t>
+    <rPh sb="0" eb="1">
+      <t>hu'zhao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <rPh sb="0" eb="1">
+      <t>ai'xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'feng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利刃</t>
+    <rPh sb="0" eb="1">
+      <t>li'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀</t>
+    <rPh sb="0" eb="1">
+      <t>an'sha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂</t>
+    <rPh sb="0" eb="1">
+      <t>yao'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无畏</t>
+    <rPh sb="0" eb="1">
+      <t>wu'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑玉</t>
+    <rPh sb="0" eb="1">
+      <t>jian'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝焰</t>
+    <rPh sb="0" eb="1">
+      <t>lan'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利爪</t>
+    <rPh sb="0" eb="1">
+      <t>li'zhua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <rPh sb="0" eb="1">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装效果</t>
+    <rPh sb="0" eb="1">
+      <t>tao'zhuang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件</t>
+    <rPh sb="0" eb="1">
+      <t>tao'zhuang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击时，有概率再进行1次普通攻击</t>
+  </si>
+  <si>
+    <t>普通攻击时，有概率额外增加1点能量</t>
+  </si>
+  <si>
+    <t>被攻击时，反弹伤害</t>
+  </si>
+  <si>
+    <t>贯穿提高</t>
+  </si>
+  <si>
+    <t>伤害减免提高</t>
+  </si>
+  <si>
+    <t>基础防御提高</t>
+  </si>
+  <si>
+    <t>基础生命提高</t>
+  </si>
+  <si>
+    <t>暴击提高</t>
+  </si>
+  <si>
+    <t>基础攻击提高</t>
+  </si>
+  <si>
+    <t>每回合追打技能可触发次数提高1</t>
+  </si>
+  <si>
+    <t>效果抵抗提高</t>
+  </si>
+  <si>
+    <t>坚毅提高</t>
+  </si>
+  <si>
+    <t>暴击抵抗提高</t>
+  </si>
+  <si>
+    <t>效果命中提高</t>
+  </si>
+  <si>
+    <t>暴击伤害提高</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -523,6 +1137,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,7 +1154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -592,11 +1214,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,29 +1425,260 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -917,174 +1951,1609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>17921</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>IF(B2&gt;25000,"超大",IF(B2&gt;15000,"大",IF(B2&gt;7500,"中","小")))</f>
+        <v>大</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>10706</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C66" si="0">IF(B3&gt;25000,"超大",IF(B3&gt;15000,"大",IF(B3&gt;7500,"中","小")))</f>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>11336</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>10294</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9998</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10152</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9937</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10149</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9937</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9901</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10020</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10090</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10037</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9930</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9964</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10745</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10766</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10511</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10729</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10768</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>11342</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10451</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>11111</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20960</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>大</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>21672</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>大</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12959</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>13166</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>12243</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>12336</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>12718</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>12608</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>12263</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>12290</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12278</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>12278</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>12428</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>12986</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>12261</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>12192</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>12348</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>12203</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>12302</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12289</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>12192</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>12580</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>12180</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>12189</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>12751</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>12167</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>12175</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>12185</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>12438</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>12409</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>12585</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>13584</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>13995</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>12214</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>12289</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>12345</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>12388</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>12782</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>13009</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>12228</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>12346</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>12425</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>12885</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f t="shared" ref="C67:C119" si="1">IF(B67&gt;25000,"超大",IF(B67&gt;15000,"大",IF(B67&gt;7500,"中","小")))</f>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>12575</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>12631</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>12612</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>12305</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>12289</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>50421</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>超大</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>12410</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>12836</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>13036</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>13377</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>14481</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>14489</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>12510</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>12875</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>13282</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>13661</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>12520</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>12373</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>12167</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>12286</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>5236</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5296</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>5207</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>5141</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>5210</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>5326</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5222</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5285</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5123</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5144</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>6104</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>6425</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5331</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5574</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5797</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B6" s="1">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
+      <c r="B103" s="1">
+        <v>6084</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+      <c r="D103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5671</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5748</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5226</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5379</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>5123</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>5533</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>6187</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>6271</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>7323</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>7405</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5745</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>5898</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>5246</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>6277</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>6487</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>4089</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B119">
+    <sortCondition ref="A2:A119"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C119">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>C2="超大"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>C1="大"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>C1="中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>C1="小"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="2:16" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="2:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="2:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="2:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="I8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6">
@@ -1094,10 +3563,34 @@
       <c r="F10" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
@@ -1107,10 +3600,34 @@
       <c r="F11" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="6">
+        <v>100</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.26840000000000003</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.1867</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.1196</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.1139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -1120,10 +3637,34 @@
       <c r="F12" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="6">
+        <v>101</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0.1152</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6">
@@ -1133,10 +3674,34 @@
       <c r="F13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="12">
+        <v>102</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.1875</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.1484</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.1172</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.1077</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
@@ -1146,10 +3711,34 @@
       <c r="F14" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="6">
+        <v>103</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.1686</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.1283</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
@@ -1159,10 +3748,34 @@
       <c r="F15" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="6">
+        <v>104</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0.1263</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0.1166</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.1057</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6">
@@ -1173,9 +3786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
@@ -1185,10 +3798,20 @@
       <c r="F17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
@@ -1198,10 +3821,30 @@
       <c r="F18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
@@ -1211,10 +3854,30 @@
       <c r="F19" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I19" s="6">
+        <v>100</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3890</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.747</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.46560000000000001</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0.308</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -1224,10 +3887,30 @@
       <c r="F20" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I20" s="6">
+        <v>101</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3918</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.45789999999999997</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0.2374</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
@@ -1237,10 +3920,30 @@
       <c r="F21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I21" s="12">
+        <v>102</v>
+      </c>
+      <c r="J21" s="12">
+        <v>4242</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0.2442</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
@@ -1250,10 +3953,30 @@
       <c r="F22" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I22" s="6">
+        <v>103</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3881</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
@@ -1263,10 +3986,30 @@
       <c r="F23" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I23" s="6">
+        <v>104</v>
+      </c>
+      <c r="J23" s="6">
+        <v>4021</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.75009999999999999</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.4516</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6">
@@ -1276,10 +4019,30 @@
       <c r="F24" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="6">
+        <v>19952</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.44929999999999998</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
         <f>SUM(C10:C24)</f>
@@ -1298,8 +4061,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="26" spans="2:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="46" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I26:P26"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C3:H3"/>
@@ -1311,4 +4098,301 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="48"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="2:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="48"/>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="31">
+        <v>4</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OPM数据分析/开服情况统计表.xlsx
+++ b/OPM数据分析/开服情况统计表.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="服务器情况统计" sheetId="1" r:id="rId1"/>
     <sheet name="102服" sheetId="2" r:id="rId2"/>
-    <sheet name="120服" sheetId="3" r:id="rId3"/>
+    <sheet name="125-126服" sheetId="3" r:id="rId3"/>
+    <sheet name="130-131服" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="149">
   <si>
     <t>人数</t>
     <rPh sb="0" eb="1">
@@ -456,13 +457,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>120服</t>
-    <rPh sb="3" eb="4">
-      <t>fu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通过修改"玩家新手阶段关卡的小怪掉落的饰品类型"并跟其它服务器对比，确定留存、玩家通关等情况与新手关卡饰品掉落类型的相关性。</t>
     <rPh sb="0" eb="1">
       <t>tong'guo</t>
@@ -810,7 +804,233 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改测试服3-4章主线、随机副本中，小怪掉落的饰品种类，由现在的（每章4种随机）修改为（这两章共3种随机）。</t>
+    <t>爱心、旋风、蓝焰</t>
+    <rPh sb="0" eb="1">
+      <t>ai'xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xuan'feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lan'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心、利刃、药剂、蓝焰</t>
+    <rPh sb="0" eb="1">
+      <t>ai'xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li'ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yao'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lan'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <rPh sb="0" eb="1">
+      <t>fan'she</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射、剑玉、利爪</t>
+    <rPh sb="0" eb="1">
+      <t>fan'she</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li'zhua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蛇</t>
+    <rPh sb="0" eb="1">
+      <t>du'she</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
+    <rPh sb="0" eb="1">
+      <t>ji'su</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <rPh sb="0" eb="1">
+      <t>neng'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护罩</t>
+    <rPh sb="0" eb="1">
+      <t>hu'zhao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <rPh sb="0" eb="1">
+      <t>ai'xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'feng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利刃</t>
+    <rPh sb="0" eb="1">
+      <t>li'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀</t>
+    <rPh sb="0" eb="1">
+      <t>an'sha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂</t>
+    <rPh sb="0" eb="1">
+      <t>yao'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无畏</t>
+    <rPh sb="0" eb="1">
+      <t>wu'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑玉</t>
+    <rPh sb="0" eb="1">
+      <t>jian'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝焰</t>
+    <rPh sb="0" eb="1">
+      <t>lan'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利爪</t>
+    <rPh sb="0" eb="1">
+      <t>li'zhua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <rPh sb="0" eb="1">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装效果</t>
+    <rPh sb="0" eb="1">
+      <t>tao'zhuang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件</t>
+    <rPh sb="0" eb="1">
+      <t>tao'zhuang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击时，有概率再进行1次普通攻击</t>
+  </si>
+  <si>
+    <t>普通攻击时，有概率额外增加1点能量</t>
+  </si>
+  <si>
+    <t>被攻击时，反弹伤害</t>
+  </si>
+  <si>
+    <t>贯穿提高</t>
+  </si>
+  <si>
+    <t>伤害减免提高</t>
+  </si>
+  <si>
+    <t>基础防御提高</t>
+  </si>
+  <si>
+    <t>基础生命提高</t>
+  </si>
+  <si>
+    <t>暴击提高</t>
+  </si>
+  <si>
+    <t>基础攻击提高</t>
+  </si>
+  <si>
+    <t>每回合追打技能可触发次数提高1</t>
+  </si>
+  <si>
+    <t>效果抵抗提高</t>
+  </si>
+  <si>
+    <t>坚毅提高</t>
+  </si>
+  <si>
+    <t>暴击抵抗提高</t>
+  </si>
+  <si>
+    <t>效果命中提高</t>
+  </si>
+  <si>
+    <t>暴击伤害提高</t>
+  </si>
+  <si>
+    <t>125/126服</t>
+    <rPh sb="7" eb="8">
+      <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改测试服3-4章主线、随机副本中，小怪掉落的饰品种类，由现在的（每章4种随机）修改为（每章3种随机，两章种类相同）。</t>
     <rPh sb="0" eb="1">
       <t>xiu'gai</t>
     </rPh>
@@ -874,245 +1094,907 @@
     <rPh sb="42" eb="43">
       <t>wei</t>
     </rPh>
+    <rPh sb="44" eb="45">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>zhe'liang'zhang</t>
+    </rPh>
     <rPh sb="47" eb="48">
-      <t>gong</t>
+      <t>zhong</t>
     </rPh>
     <rPh sb="48" eb="49">
-      <t>zhe'liang'zhang</t>
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>liang'zhang</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>zhong'lei</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>xiang'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过修改随机副本目标产出及调整关卡难度，引导玩家在游戏中形成培养目标，期望能够提高游戏的中长线留存。
+增加玩家初期的扫荡券产出，修改琦玉等级的免费扫荡次数，期望减少玩家初期肝度，并且使玩家在中后期能够培养成每日的上线后分段的产出体验。</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'ben</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chan'chu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>guan'ka</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yin'dao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>you'xi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xing'chegn</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>qi'wang</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>neng'gou</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>you'xi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>d</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhong'chang'xian</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>liu'cun</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>chu'qi</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>d</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>sao'dang'quan</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>chan'chu</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>qi'yu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>d</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>mian'fei</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>sao'dang</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>qi'wang</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>chu'qi</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>gan'du</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>wan'jai</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>z</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>zhong'hou'qi</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>neng'gou</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>chegn</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>mei'ri</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>d</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>fen'duan</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>d</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>chan'chu</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ti'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）给每一章确定1个主要培养目标及0-2个次要培养目标，该章的随机关卡目标及这些目标的培养材料。同时，由于玩家培养进度调整，随之调整关卡难度。
+（2）初期关卡奖励增加较多的扫荡券（琦玉一拳），希望降低游戏初期的肝度。同时，调整琦玉等级奖励的每日免费扫荡次数，降低初始值，大幅增加成长值。是玩家在度过新手期后能够迅速获得每天一定量的免费扫荡次数。</t>
+    <rPh sb="3" eb="4">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mei'yi'zhang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ci'yao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>d</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>guan'ka</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhe'xie</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>d</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>pei'yagn</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>cai'liao</t>
     </rPh>
     <rPh sb="49" eb="50">
-      <t>zhong</t>
+      <t>tong'shi</t>
     </rPh>
     <rPh sb="50" eb="51">
-      <t>sui'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心、旋风、蓝焰</t>
-    <rPh sb="0" eb="1">
-      <t>ai'xin</t>
+      <t>shi</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>you'yu</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>pei'yagn</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>jin'du</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>sui'zhi</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>guan'ka</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>chu'qi</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>guan'ka</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>jiao'duo</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>d</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>sao'dang'quan</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>qi'yu'yi'quan</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>xi'wang</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>chu'qi</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>d</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>gan'du</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>tong'shi</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>qi'yu</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>d</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>mei'ri</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>mian'f</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>sao'd</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>chu'shi</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>da'fu</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>fu'du</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>z</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>du'guo</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>xin'shou'qi</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>xun'su</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>mei'tian</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>yi'dign</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ding'liang</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>d</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>mian'fei</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>sao'dang</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>升2星</t>
+    <rPh sb="0" eb="1">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升3星</t>
+    <rPh sb="0" eb="1">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要目标</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次要目标</t>
+    <rPh sb="0" eb="1">
+      <t>ci'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线天赋|特质2</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>te'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特质2</t>
+    <rPh sb="0" eb="1">
+      <t>te'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升4星</t>
+    <rPh sb="0" eb="1">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线天赋|升4星</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线天赋|饰品</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品|主线天赋</t>
+    <rPh sb="0" eb="1">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特质3</t>
+    <rPh sb="0" eb="1">
+      <t>te'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升5星</t>
+    <rPh sb="0" eb="1">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品|饰品升级|主线天赋</t>
+    <rPh sb="0" eb="1">
+      <t>shi'pin</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>xuan'feng</t>
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu'xian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tian'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线天赋</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特质4|升6星|饰品</t>
+    <rPh sb="0" eb="1">
+      <t>te'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>lan'yan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心、利刃、药剂、蓝焰</t>
-    <rPh sb="0" eb="1">
-      <t>ai'xin</t>
+      <t>xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线天赋|升5星|饰品</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tia'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特质4</t>
+    <rPh sb="0" eb="1">
+      <t>te'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线天赋|升6星|饰品</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升6星</t>
+    <rPh sb="0" eb="1">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6星升级</t>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品|其它</t>
+    <rPh sb="0" eb="1">
+      <t>shi'pin</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>li'ren</t>
+      <t>qi'ta</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升星|天赋|经验</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tian'fu</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>yao'ji</t>
+      <t>jing'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节目标</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡券奖励</t>
+    <rPh sb="0" eb="1">
+      <t>sao'dang'quan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiagn'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改后</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成天数</t>
+    <rPh sb="0" eb="1">
+      <t>da'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成天数</t>
+    <rPh sb="0" eb="1">
+      <t>da'chegn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡次数</t>
+    <rPh sb="0" eb="1">
+      <t>sao'dang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127/128服（预计）</t>
+    <rPh sb="7" eb="8">
+      <t>fu</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>lan'yan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反射</t>
-    <rPh sb="0" eb="1">
-      <t>fan'she</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反射、剑玉、利爪</t>
-    <rPh sb="0" eb="1">
-      <t>fan'she</t>
+      <t>yu'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营：服务器确定
+测试：引导、掉落、难度等。</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>jian'yu</t>
+      <t>fu'wu'qi</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>li'zhua</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒蛇</t>
-    <rPh sb="0" eb="1">
-      <t>du'she</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>急速</t>
-    <rPh sb="0" eb="1">
-      <t>ji'su</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量</t>
-    <rPh sb="0" eb="1">
-      <t>neng'liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护罩</t>
-    <rPh sb="0" eb="1">
-      <t>hu'zhao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装甲</t>
-    <rPh sb="0" eb="1">
-      <t>zhuang'jia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心</t>
-    <rPh sb="0" eb="1">
-      <t>ai'xin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋风</t>
-    <rPh sb="0" eb="1">
-      <t>xuan'feng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利刃</t>
-    <rPh sb="0" eb="1">
-      <t>li'ren</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗杀</t>
-    <rPh sb="0" eb="1">
-      <t>an'sha</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>药剂</t>
-    <rPh sb="0" eb="1">
-      <t>yao'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无畏</t>
-    <rPh sb="0" eb="1">
-      <t>wu'wei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑玉</t>
-    <rPh sb="0" eb="1">
-      <t>jian'yu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝焰</t>
-    <rPh sb="0" eb="1">
-      <t>lan'yan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利爪</t>
-    <rPh sb="0" eb="1">
-      <t>li'zhua</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>饰品</t>
-    <rPh sb="0" eb="1">
-      <t>shi'pin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套装效果</t>
-    <rPh sb="0" eb="1">
-      <t>tao'zhuang</t>
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin'dao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琦玉日常等级</t>
+    <rPh sb="0" eb="1">
+      <t>qi'yu</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>xiao'guo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件</t>
-    <rPh sb="0" eb="1">
-      <t>tao'zhuang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击时，有概率再进行1次普通攻击</t>
-  </si>
-  <si>
-    <t>普通攻击时，有概率额外增加1点能量</t>
-  </si>
-  <si>
-    <t>被攻击时，反弹伤害</t>
-  </si>
-  <si>
-    <t>贯穿提高</t>
-  </si>
-  <si>
-    <t>伤害减免提高</t>
-  </si>
-  <si>
-    <t>基础防御提高</t>
-  </si>
-  <si>
-    <t>基础生命提高</t>
-  </si>
-  <si>
-    <t>暴击提高</t>
-  </si>
-  <si>
-    <t>基础攻击提高</t>
-  </si>
-  <si>
-    <t>每回合追打技能可触发次数提高1</t>
-  </si>
-  <si>
-    <t>效果抵抗提高</t>
-  </si>
-  <si>
-    <t>坚毅提高</t>
-  </si>
-  <si>
-    <t>暴击抵抗提高</t>
-  </si>
-  <si>
-    <t>效果命中提高</t>
-  </si>
-  <si>
-    <t>暴击伤害提高</t>
+      <t>ri'chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1145,6 +2027,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1154,7 +2042,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1395,11 +2283,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1493,6 +2420,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1552,19 +2514,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="4">
     <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1580,11 +2569,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1595,86 +2584,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1953,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -1964,19 +2873,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3203,10 +4112,10 @@
         <v>小</v>
       </c>
       <c r="D103" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" t="s">
         <v>59</v>
-      </c>
-      <c r="E103" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -3407,19 +4316,19 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C119">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>C2="超大"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>C1="大"</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>C1="小"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>C1="中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>C1="小"</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>C1="大"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3431,90 +4340,91 @@
   <dimension ref="B2:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="7" max="8" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="2:16" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="2:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="51"/>
       <c r="I8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3541,7 +4451,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3564,28 +4474,28 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="K10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
@@ -3799,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3822,22 +4732,22 @@
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="N18" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -4020,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" s="6">
         <v>19952</v>
@@ -4062,16 +4972,16 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I26" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="I26" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
@@ -4105,7 +5015,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4116,88 +5026,88 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="50"/>
-    </row>
-    <row r="5" spans="2:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="54"/>
+        <v>51</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="69"/>
       <c r="E9" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="44"/>
+        <v>52</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="59"/>
       <c r="E10" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4205,180 +5115,180 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>82</v>
-      </c>
       <c r="D12" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="6">
         <v>4</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="6">
         <v>4</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="6">
         <v>4</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="6">
         <v>4</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="12">
         <v>2</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="6">
         <v>4</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" s="6">
         <v>4</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="12">
         <v>2</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="31">
         <v>4</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4395,4 +5305,597 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="2:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="2:13" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+    </row>
+    <row r="7" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="76"/>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="78"/>
+      <c r="J8" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="26"/>
+      <c r="I10" s="29">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>6</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6">
+        <v>3</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="71"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="29">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>7</v>
+      </c>
+      <c r="K11" s="6">
+        <v>7</v>
+      </c>
+      <c r="L11" s="6">
+        <v>6</v>
+      </c>
+      <c r="M11" s="26">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="29">
+        <v>4</v>
+      </c>
+      <c r="J12" s="6">
+        <v>8</v>
+      </c>
+      <c r="K12" s="6">
+        <v>14</v>
+      </c>
+      <c r="L12" s="6">
+        <v>9</v>
+      </c>
+      <c r="M12" s="26">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="29">
+        <v>5</v>
+      </c>
+      <c r="J13" s="6">
+        <v>9</v>
+      </c>
+      <c r="K13" s="6">
+        <v>30</v>
+      </c>
+      <c r="L13" s="6">
+        <v>12</v>
+      </c>
+      <c r="M13" s="26">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="29">
+        <v>6</v>
+      </c>
+      <c r="J14" s="6">
+        <v>10</v>
+      </c>
+      <c r="K14" s="6">
+        <v>60</v>
+      </c>
+      <c r="L14" s="6">
+        <v>15</v>
+      </c>
+      <c r="M14" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="29">
+        <v>7</v>
+      </c>
+      <c r="J15" s="6">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6">
+        <v>120</v>
+      </c>
+      <c r="L15" s="6">
+        <v>18</v>
+      </c>
+      <c r="M15" s="26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="29">
+        <v>8</v>
+      </c>
+      <c r="J16" s="6">
+        <v>12</v>
+      </c>
+      <c r="K16" s="6">
+        <v>210</v>
+      </c>
+      <c r="L16" s="6">
+        <v>21</v>
+      </c>
+      <c r="M16" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="29">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6">
+        <v>330</v>
+      </c>
+      <c r="L17" s="6">
+        <v>24</v>
+      </c>
+      <c r="M17" s="26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="29">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6">
+        <v>14</v>
+      </c>
+      <c r="K18" s="6">
+        <v>510</v>
+      </c>
+      <c r="L18" s="6">
+        <v>27</v>
+      </c>
+      <c r="M18" s="26">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="29">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6">
+        <v>15</v>
+      </c>
+      <c r="K19" s="6">
+        <v>870</v>
+      </c>
+      <c r="L19" s="6">
+        <v>30</v>
+      </c>
+      <c r="M19" s="26">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="29">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6">
+        <v>16</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1590</v>
+      </c>
+      <c r="L20" s="6">
+        <v>33</v>
+      </c>
+      <c r="M20" s="26">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="29">
+        <v>13</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="6">
+        <v>36</v>
+      </c>
+      <c r="M21" s="26">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="29">
+        <v>14</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="6">
+        <v>39</v>
+      </c>
+      <c r="M22" s="26">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="29">
+        <v>15</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="6">
+        <v>42</v>
+      </c>
+      <c r="M23" s="26">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="30">
+        <v>16</v>
+      </c>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="31">
+        <v>45</v>
+      </c>
+      <c r="M24" s="27">
+        <v>1380</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OPM数据分析/开服情况统计表.xlsx
+++ b/OPM数据分析/开服情况统计表.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-33080" yWindow="3880" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="服务器情况统计" sheetId="1" r:id="rId1"/>
     <sheet name="102服" sheetId="2" r:id="rId2"/>
-    <sheet name="125-126服" sheetId="3" r:id="rId3"/>
+    <sheet name="142-143服" sheetId="3" r:id="rId3"/>
     <sheet name="130-131服" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -1023,13 +1023,6 @@
     <t>暴击伤害提高</t>
   </si>
   <si>
-    <t>125/126服</t>
-    <rPh sb="7" eb="8">
-      <t>fu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改测试服3-4章主线、随机副本中，小怪掉落的饰品种类，由现在的（每章4种随机）修改为（每章3种随机，两章种类相同）。</t>
     <rPh sb="0" eb="1">
       <t>xiu'gai</t>
@@ -1986,6 +1979,13 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>142/143服</t>
+    <rPh sb="7" eb="8">
+      <t>fu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2515,6 +2515,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2529,18 +2541,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5014,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5048,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="65"/>
@@ -5058,7 +5058,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="63"/>
@@ -5311,7 +5311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -5339,7 +5339,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="63"/>
@@ -5349,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="65"/>
@@ -5359,7 +5359,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="63"/>
@@ -5368,11 +5368,11 @@
       <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
+      <c r="C6" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="41"/>
@@ -5380,51 +5380,51 @@
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="H7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="64" t="s">
         <v>144</v>
-      </c>
-      <c r="I7" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>145</v>
       </c>
       <c r="K7" s="64"/>
       <c r="L7" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="76"/>
+        <v>140</v>
+      </c>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="78"/>
+        <v>137</v>
+      </c>
+      <c r="I8" s="73"/>
       <c r="J8" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K8" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="49" t="s">
         <v>142</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I9" s="29">
         <v>1</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+        <v>100</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="37"/>
       <c r="F10" s="26"/>
       <c r="I10" s="29">
@@ -5468,15 +5468,15 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="71"/>
+        <v>99</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="75"/>
       <c r="E11" s="46"/>
       <c r="F11" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I11" s="29">
         <v>3</v>
@@ -5496,17 +5496,17 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="70"/>
+        <v>101</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="74"/>
       <c r="E12" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I12" s="29">
         <v>4</v>
@@ -5526,17 +5526,17 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="71"/>
+        <v>102</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="75"/>
       <c r="E13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" s="29">
         <v>5</v>
@@ -5556,17 +5556,17 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="70"/>
+        <v>103</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="74"/>
       <c r="E14" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" s="29">
         <v>6</v>
@@ -5586,17 +5586,17 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="71"/>
+        <v>104</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="75"/>
       <c r="E15" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I15" s="29">
         <v>7</v>
@@ -5616,17 +5616,17 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="74"/>
+      <c r="E16" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="37" t="s">
-        <v>127</v>
-      </c>
       <c r="F16" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I16" s="29">
         <v>8</v>
@@ -5646,17 +5646,17 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="75"/>
+      <c r="E17" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="46" t="s">
-        <v>129</v>
-      </c>
       <c r="F17" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I17" s="29">
         <v>9</v>
@@ -5676,17 +5676,17 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="37" t="s">
-        <v>132</v>
-      </c>
       <c r="F18" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I18" s="29">
         <v>10</v>
@@ -5706,17 +5706,17 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="71"/>
+        <v>108</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="75"/>
       <c r="E19" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I19" s="29">
         <v>11</v>
@@ -5736,17 +5736,17 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="74"/>
+      <c r="E20" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="37" t="s">
-        <v>135</v>
-      </c>
       <c r="F20" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I20" s="29">
         <v>12</v>
@@ -5766,17 +5766,17 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="74"/>
+      <c r="E21" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="37" t="s">
-        <v>135</v>
-      </c>
       <c r="F21" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I21" s="29">
         <v>13</v>
@@ -5792,17 +5792,17 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="70"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" s="29">
         <v>14</v>
@@ -5818,17 +5818,17 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="71"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I23" s="29">
         <v>15</v>
@@ -5844,17 +5844,17 @@
     </row>
     <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I24" s="30">
         <v>16</v>
@@ -5870,6 +5870,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
@@ -5886,14 +5894,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OPM数据分析/开服情况统计表.xlsx
+++ b/OPM数据分析/开服情况统计表.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33080" yWindow="3880" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11680" yWindow="840" windowWidth="26200" windowHeight="20080" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="服务器情况统计" sheetId="1" r:id="rId1"/>
     <sheet name="102服" sheetId="2" r:id="rId2"/>
-    <sheet name="142-143服" sheetId="3" r:id="rId3"/>
-    <sheet name="130-131服" sheetId="4" r:id="rId4"/>
+    <sheet name="130-131服" sheetId="4" r:id="rId3"/>
+    <sheet name="142-143服" sheetId="3" r:id="rId4"/>
+    <sheet name="145-146服" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
   <si>
     <t>人数</t>
     <rPh sb="0" eb="1">
@@ -1989,12 +1990,188 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>通过修改测试服小额付费礼包的开启时机，并跟其它服务器对比，确定留存、付费率等是否与小额付费礼包的开启时机有相关性。</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'shi'fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao'e</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'fei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>li'bao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fu'wu'qi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dui'bi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>liu'cun</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fu'fei</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>lv</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>s'fou</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>xiao'e</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>fu'fei</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>li'bao</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>d</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>you</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>xiang'guan'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>145/146服</t>
+    <rPh sb="7" eb="8">
+      <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营：开服时间确定
+测试：已测完。</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi'ce'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常服：玩家等级达到10、20、30级开启礼包。
+测试服：玩家通关第2章时（约5级），如果之前没充值过，触发0.99美金礼包，可以使用1美金购买10个高级招募令。该购买可以领取首充奖励。
+如果之前充值过，则按照限时礼包逻辑，触发其他档位的礼包。</t>
+    <rPh sb="0" eb="1">
+      <t>zhegn'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da'dao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>li'bao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ce'shi'fu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/B测试计划（0.99美金礼包）</t>
+    <rPh sb="3" eb="4">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mei'jin</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>li'bao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2033,6 +2210,41 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2323,10 +2535,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2515,6 +2730,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2527,24 +2757,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -5012,303 +5245,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-    </row>
-    <row r="3" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="63"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="65"/>
-    </row>
-    <row r="5" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="63"/>
-    </row>
-    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-    </row>
-    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="6">
-        <v>4</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="6">
-        <v>4</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="6">
-        <v>4</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="12">
-        <v>2</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="31">
-        <v>4</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:D9"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5368,11 +5304,11 @@
       <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="41"/>
@@ -5382,7 +5318,7 @@
       <c r="H7" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="77" t="s">
         <v>147</v>
       </c>
       <c r="J7" s="64" t="s">
@@ -5392,13 +5328,13 @@
       <c r="L7" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="M7" s="71"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="73"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="44" t="s">
         <v>143</v>
       </c>
@@ -5446,8 +5382,8 @@
       <c r="B10" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="37"/>
       <c r="F10" s="26"/>
       <c r="I10" s="29">
@@ -5470,10 +5406,10 @@
       <c r="B11" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="46"/>
       <c r="F11" s="26" t="s">
         <v>139</v>
@@ -5498,10 +5434,10 @@
       <c r="B12" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="37" t="s">
         <v>118</v>
       </c>
@@ -5528,10 +5464,10 @@
       <c r="B13" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="46" t="s">
         <v>121</v>
       </c>
@@ -5558,10 +5494,10 @@
       <c r="B14" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="37" t="s">
         <v>123</v>
       </c>
@@ -5588,10 +5524,10 @@
       <c r="B15" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="46" t="s">
         <v>129</v>
       </c>
@@ -5618,10 +5554,10 @@
       <c r="B16" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="37" t="s">
         <v>126</v>
       </c>
@@ -5648,10 +5584,10 @@
       <c r="B17" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="46" t="s">
         <v>128</v>
       </c>
@@ -5678,10 +5614,10 @@
       <c r="B18" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="37" t="s">
         <v>131</v>
       </c>
@@ -5708,10 +5644,10 @@
       <c r="B19" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="46" t="s">
         <v>122</v>
       </c>
@@ -5738,10 +5674,10 @@
       <c r="B20" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="74"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="37" t="s">
         <v>134</v>
       </c>
@@ -5768,10 +5704,10 @@
       <c r="B21" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="37" t="s">
         <v>134</v>
       </c>
@@ -5794,10 +5730,10 @@
       <c r="B22" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="74"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="37" t="s">
         <v>135</v>
       </c>
@@ -5820,10 +5756,10 @@
       <c r="B23" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="37" t="s">
         <v>135</v>
       </c>
@@ -5846,10 +5782,10 @@
       <c r="B24" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="47" t="s">
         <v>135</v>
       </c>
@@ -5870,14 +5806,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
@@ -5894,6 +5822,611 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="69"/>
+      <c r="E9" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="31">
+        <v>4</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="2:13" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="2:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G32" s="17"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G33" s="17"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G34" s="17"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G35" s="17"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OPM数据分析/开服情况统计表.xlsx
+++ b/OPM数据分析/开服情况统计表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="840" windowWidth="26200" windowHeight="20080" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="11680" yWindow="840" windowWidth="26200" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="服务器情况统计" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
   <si>
     <t>人数</t>
     <rPh sb="0" eb="1">
@@ -761,46 +761,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>shui'ping</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊测试</t>
-    <rPh sb="0" eb="1">
-      <t>te'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试状态</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuang't</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星奖励</t>
-    <rPh sb="0" eb="1">
-      <t>san'xing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiang'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试中</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2670,93 +2630,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
@@ -2773,13 +2646,140 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3093,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3114,19 +3114,15 @@
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>17921</v>
+        <v>19176</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>IF(B2&gt;25000,"超大",IF(B2&gt;15000,"大",IF(B2&gt;7500,"中","小")))</f>
@@ -3138,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>10706</v>
+        <v>11008</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(B3&gt;25000,"超大",IF(B3&gt;15000,"大",IF(B3&gt;7500,"中","小")))</f>
@@ -3150,7 +3146,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>11336</v>
+        <v>11636</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3162,7 +3158,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10294</v>
+        <v>10445</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3174,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>9998</v>
+        <v>10122</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3186,7 +3182,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>10152</v>
+        <v>10330</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3198,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9937</v>
+        <v>10043</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3210,7 +3206,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>10149</v>
+        <v>10361</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3222,7 +3218,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9937</v>
+        <v>10070</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3234,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>9901</v>
+        <v>10352</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3246,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>10020</v>
+        <v>10048</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3258,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>10090</v>
+        <v>10117</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3270,7 +3266,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>10037</v>
+        <v>10076</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3282,7 +3278,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>9930</v>
+        <v>9949</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3294,7 +3290,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>9964</v>
+        <v>9978</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3306,7 +3302,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>10745</v>
+        <v>10758</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3318,7 +3314,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>10766</v>
+        <v>10784</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3330,7 +3326,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>10511</v>
+        <v>10521</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3342,7 +3338,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>10729</v>
+        <v>10745</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3354,7 +3350,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>10768</v>
+        <v>10790</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3366,7 +3362,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>11342</v>
+        <v>11366</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3378,7 +3374,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>10451</v>
+        <v>10465</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3390,7 +3386,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>11111</v>
+        <v>11128</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3402,7 +3398,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>20960</v>
+        <v>20999</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3414,7 +3410,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21672</v>
+        <v>21706</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3426,7 +3422,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>12959</v>
+        <v>12973</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3438,7 +3434,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>13166</v>
+        <v>13187</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3450,7 +3446,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>12243</v>
+        <v>12252</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3462,7 +3458,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>12336</v>
+        <v>12347</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3474,7 +3470,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>12718</v>
+        <v>12730</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3486,7 +3482,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>12608</v>
+        <v>12627</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3498,7 +3494,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>12263</v>
+        <v>12282</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3510,7 +3506,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>12290</v>
+        <v>12301</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3522,7 +3518,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>12278</v>
+        <v>12302</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3534,7 +3530,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>12278</v>
+        <v>12291</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3546,7 +3542,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>12428</v>
+        <v>12445</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3558,7 +3554,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>12986</v>
+        <v>13019</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3570,7 +3566,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>12261</v>
+        <v>12289</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3582,7 +3578,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>12192</v>
+        <v>12211</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3594,7 +3590,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>12348</v>
+        <v>12374</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3606,7 +3602,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>12203</v>
+        <v>12219</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3618,7 +3614,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>12302</v>
+        <v>12324</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3630,7 +3626,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>12289</v>
+        <v>12308</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3642,7 +3638,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>12192</v>
+        <v>12208</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3654,7 +3650,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>12580</v>
+        <v>12595</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3666,7 +3662,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>12180</v>
+        <v>12193</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3678,7 +3674,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>12189</v>
+        <v>12205</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3690,7 +3686,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>12751</v>
+        <v>12764</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3702,7 +3698,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>12167</v>
+        <v>12181</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3714,7 +3710,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>12175</v>
+        <v>12185</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3726,7 +3722,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>12185</v>
+        <v>12196</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3738,7 +3734,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>12438</v>
+        <v>12453</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3750,7 +3746,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>12409</v>
+        <v>12422</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3762,7 +3758,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>12585</v>
+        <v>12599</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3774,7 +3770,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>13584</v>
+        <v>13599</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3786,7 +3782,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>13995</v>
+        <v>14007</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3798,7 +3794,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>12214</v>
+        <v>12224</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3810,7 +3806,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>12289</v>
+        <v>12300</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3822,7 +3818,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>12345</v>
+        <v>12362</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3834,7 +3830,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>12388</v>
+        <v>12410</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3846,7 +3842,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>12782</v>
+        <v>12797</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3858,7 +3854,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>13009</v>
+        <v>13019</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3870,7 +3866,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>12228</v>
+        <v>12234</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3882,7 +3878,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>12346</v>
+        <v>12366</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3894,7 +3890,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>12425</v>
+        <v>12439</v>
       </c>
       <c r="C66" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3906,10 +3902,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>12885</v>
+        <v>12899</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" ref="C67:C119" si="1">IF(B67&gt;25000,"超大",IF(B67&gt;15000,"大",IF(B67&gt;7500,"中","小")))</f>
+        <f t="shared" ref="C67:C130" si="1">IF(B67&gt;25000,"超大",IF(B67&gt;15000,"大",IF(B67&gt;7500,"中","小")))</f>
         <v>中</v>
       </c>
     </row>
@@ -3918,7 +3914,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>12575</v>
+        <v>12591</v>
       </c>
       <c r="C68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3930,7 +3926,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>12631</v>
+        <v>12653</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3942,7 +3938,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>12612</v>
+        <v>12635</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3954,7 +3950,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>12305</v>
+        <v>12327</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3966,7 +3962,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>12289</v>
+        <v>12310</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3978,7 +3974,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>50421</v>
+        <v>50466</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3990,7 +3986,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>12410</v>
+        <v>12427</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4002,7 +3998,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>12836</v>
+        <v>12850</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4014,7 +4010,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>13036</v>
+        <v>13056</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4026,7 +4022,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>13377</v>
+        <v>13394</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4038,7 +4034,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>14481</v>
+        <v>14510</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4050,7 +4046,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>14489</v>
+        <v>14516</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4062,7 +4058,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>12510</v>
+        <v>12524</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4074,7 +4070,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>12875</v>
+        <v>12896</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4086,7 +4082,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>13282</v>
+        <v>13302</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4098,7 +4094,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>13661</v>
+        <v>13694</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4110,7 +4106,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>12520</v>
+        <v>12544</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4122,7 +4118,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>12373</v>
+        <v>12402</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4134,7 +4130,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>12167</v>
+        <v>12191</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4146,7 +4142,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>12286</v>
+        <v>12317</v>
       </c>
       <c r="C87" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4158,7 +4154,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>5236</v>
+        <v>5250</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4170,7 +4166,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>5296</v>
+        <v>5311</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4182,7 +4178,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>5207</v>
+        <v>5226</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4194,7 +4190,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>5141</v>
+        <v>5158</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4206,7 +4202,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>5210</v>
+        <v>5232</v>
       </c>
       <c r="C92" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4218,7 +4214,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>5326</v>
+        <v>5341</v>
       </c>
       <c r="C93" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4230,7 +4226,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>5222</v>
+        <v>5240</v>
       </c>
       <c r="C94" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4242,7 +4238,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4254,205 +4250,199 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>5123</v>
+        <v>5138</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>5144</v>
+        <v>5164</v>
       </c>
       <c r="C97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>6104</v>
+        <v>6123</v>
       </c>
       <c r="C98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>6425</v>
+        <v>6442</v>
       </c>
       <c r="C99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>5331</v>
+        <v>5357</v>
       </c>
       <c r="C100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>5574</v>
+        <v>5602</v>
       </c>
       <c r="C101" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>5797</v>
+        <v>5827</v>
       </c>
       <c r="C102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>6084</v>
+        <v>6113</v>
       </c>
       <c r="C103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
-      <c r="D103" t="s">
-        <v>58</v>
-      </c>
-      <c r="E103" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>5671</v>
+        <v>5697</v>
       </c>
       <c r="C104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>5748</v>
+        <v>5776</v>
       </c>
       <c r="C105" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>5226</v>
+        <v>5247</v>
       </c>
       <c r="C106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>5379</v>
+        <v>5390</v>
       </c>
       <c r="C107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>5123</v>
+        <v>5147</v>
       </c>
       <c r="C108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>5533</v>
+        <v>5562</v>
       </c>
       <c r="C109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>6187</v>
+        <v>6219</v>
       </c>
       <c r="C110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>6271</v>
+        <v>6308</v>
       </c>
       <c r="C111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>小</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>7323</v>
+        <v>7382</v>
       </c>
       <c r="C112" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4464,7 +4454,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>7405</v>
+        <v>7456</v>
       </c>
       <c r="C113" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4476,7 +4466,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>5745</v>
+        <v>5782</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4488,7 +4478,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>5898</v>
+        <v>5944</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4500,7 +4490,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>5246</v>
+        <v>5297</v>
       </c>
       <c r="C116" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4512,7 +4502,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>6277</v>
+        <v>6344</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4524,11 +4514,11 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>6487</v>
+        <v>9196</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
+        <v>中</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4536,10 +4526,370 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4089</v>
+        <v>7810</v>
       </c>
       <c r="C119" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>中</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>5899</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>5192</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>5607</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>5337</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>6079</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>5586</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>6829</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>5124</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5160</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>7015</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>5227</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>5298</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f t="shared" ref="C131:C149" si="2">IF(B131&gt;25000,"超大",IF(B131&gt;15000,"大",IF(B131&gt;7500,"中","小")))</f>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>5189</v>
+      </c>
+      <c r="C132" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>5111</v>
+      </c>
+      <c r="C133" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>6506</v>
+      </c>
+      <c r="C134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5152</v>
+      </c>
+      <c r="C135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>5446</v>
+      </c>
+      <c r="C136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>5189</v>
+      </c>
+      <c r="C137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>5254</v>
+      </c>
+      <c r="C138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5096</v>
+      </c>
+      <c r="C139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>5043</v>
+      </c>
+      <c r="C140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>5197</v>
+      </c>
+      <c r="C141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>5277</v>
+      </c>
+      <c r="C142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>5147</v>
+      </c>
+      <c r="C143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>5040</v>
+      </c>
+      <c r="C144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>5046</v>
+      </c>
+      <c r="C145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>5036</v>
+      </c>
+      <c r="C146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>5142</v>
+      </c>
+      <c r="C147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>5686</v>
+      </c>
+      <c r="C148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>小</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>31</v>
+      </c>
+      <c r="C149" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>小</v>
       </c>
     </row>
@@ -4548,19 +4898,19 @@
     <sortCondition ref="A2:A119"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C119">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="C2:C149">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>C2="超大"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>C1="小"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>C1="中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>C1="大"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4584,78 +4934,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="2:16" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="58"/>
       <c r="I8" s="9" t="s">
         <v>32</v>
       </c>
@@ -5205,16 +5555,16 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
@@ -5263,52 +5613,52 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="63"/>
+      <c r="C3" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="65"/>
+      <c r="C4" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="2:13" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
+      <c r="C6" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
     </row>
     <row r="7" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="41"/>
@@ -5316,51 +5666,51 @@
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="H7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64" t="s">
+      <c r="J7" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="M7" s="76"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="67"/>
     </row>
     <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>141</v>
-      </c>
       <c r="L8" s="35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="64"/>
+        <v>132</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="66"/>
       <c r="E9" s="36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I9" s="29">
         <v>1</v>
@@ -5380,7 +5730,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
@@ -5404,15 +5754,15 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="46"/>
       <c r="F11" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I11" s="29">
         <v>3</v>
@@ -5432,17 +5782,17 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I12" s="29">
         <v>4</v>
@@ -5462,17 +5812,17 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I13" s="29">
         <v>5</v>
@@ -5492,17 +5842,17 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D14" s="70"/>
       <c r="E14" s="37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I14" s="29">
         <v>6</v>
@@ -5522,17 +5872,17 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I15" s="29">
         <v>7</v>
@@ -5552,17 +5902,17 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I16" s="29">
         <v>8</v>
@@ -5582,17 +5932,17 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I17" s="29">
         <v>9</v>
@@ -5612,17 +5962,17 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I18" s="29">
         <v>10</v>
@@ -5642,17 +5992,17 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="46" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I19" s="29">
         <v>11</v>
@@ -5672,17 +6022,17 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I20" s="29">
         <v>12</v>
@@ -5702,17 +6052,17 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I21" s="29">
         <v>13</v>
@@ -5728,17 +6078,17 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>139</v>
       </c>
       <c r="I22" s="29">
         <v>14</v>
@@ -5754,17 +6104,17 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D23" s="71"/>
       <c r="E23" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>139</v>
       </c>
       <c r="I23" s="29">
         <v>15</v>
@@ -5780,17 +6130,17 @@
     </row>
     <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="75"/>
+        <v>109</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="65"/>
       <c r="E24" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>135</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="I24" s="30">
         <v>16</v>
@@ -5806,6 +6156,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
@@ -5822,14 +6180,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5852,62 +6202,62 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="63"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="65"/>
+      <c r="C4" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="19" t="s">
         <v>53</v>
       </c>
@@ -5916,24 +6266,24 @@
       <c r="B9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="85"/>
       <c r="E9" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="59"/>
+      <c r="C10" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="81"/>
       <c r="E10" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5941,180 +6291,180 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6">
         <v>4</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" s="6">
         <v>4</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6">
         <v>4</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C17" s="6">
         <v>4</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" s="12">
         <v>2</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C21" s="6">
         <v>4</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6">
         <v>4</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C26" s="12">
         <v>2</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" s="31">
         <v>4</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6137,8 +6487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6148,183 +6498,183 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="63"/>
+      <c r="C3" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="65"/>
+      <c r="C4" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="2:13" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="C6" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G19" s="79"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G22" s="79"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G23" s="79"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="81"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
     <row r="24" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="81"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G25" s="79"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="81"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -6377,37 +6727,37 @@
     </row>
     <row r="32" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G32" s="17"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
     <row r="33" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G33" s="17"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G34" s="17"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
     </row>
     <row r="35" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G35" s="17"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
     </row>
